--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KB429861\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KB429861\Desktop\GravitySurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2506,58 +2506,58 @@
         <v>-250</v>
       </c>
       <c r="B45" s="4">
-        <v>5.240889E-2</v>
+        <v>-18.82527</v>
       </c>
       <c r="C45" s="5">
-        <v>0.1185577</v>
+        <v>38.07329</v>
       </c>
       <c r="D45" s="5">
-        <v>0.1480688</v>
+        <v>-33.29701</v>
       </c>
       <c r="E45" s="5">
-        <v>0.15634970000000001</v>
+        <v>9.7118669999999998</v>
       </c>
       <c r="F45" s="5">
-        <v>0.1529325</v>
+        <v>-4.511342</v>
       </c>
       <c r="G45" s="5">
-        <v>0.14451530000000001</v>
+        <v>90.519829999999999</v>
       </c>
       <c r="H45" s="5">
-        <v>0.13532340000000001</v>
+        <v>-78.262820000000005</v>
       </c>
       <c r="I45" s="5">
-        <v>0.12712270000000001</v>
+        <v>-53.828560000000003</v>
       </c>
       <c r="J45" s="5">
-        <v>0.11979960000000001</v>
+        <v>64.373869999999997</v>
       </c>
       <c r="K45" s="5">
-        <v>0.11233940000000001</v>
+        <v>-216.72749999999999</v>
       </c>
       <c r="L45" s="5">
-        <v>0.10393040000000001</v>
+        <v>-46.932940000000002</v>
       </c>
       <c r="M45" s="5">
-        <v>9.4556390000000004E-2</v>
+        <v>-81.818060000000003</v>
       </c>
       <c r="N45" s="5">
-        <v>8.45891E-2</v>
+        <v>9.2633410000000005</v>
       </c>
       <c r="O45" s="5">
-        <v>7.4485709999999997E-2</v>
+        <v>-295.096</v>
       </c>
       <c r="P45" s="5">
-        <v>6.4831349999999996E-2</v>
+        <v>19.987189999999998</v>
       </c>
       <c r="Q45" s="5">
-        <v>5.6162749999999997E-2</v>
+        <v>166.60239999999999</v>
       </c>
       <c r="R45" s="5">
-        <v>4.8723089999999997E-2</v>
+        <v>-160.989</v>
       </c>
       <c r="S45" s="5">
-        <v>4.249352E-2</v>
+        <v>367.03109999999998</v>
       </c>
       <c r="T45" s="6"/>
     </row>
@@ -2566,58 +2566,58 @@
         <v>-500</v>
       </c>
       <c r="B46" s="3">
-        <v>-1.551133E-2</v>
+        <v>-27.126259999999998</v>
       </c>
       <c r="C46" s="1">
-        <v>8.7714490000000006E-2</v>
+        <v>110.7547</v>
       </c>
       <c r="D46" s="1">
-        <v>0.13253380000000001</v>
+        <v>-47.240879999999997</v>
       </c>
       <c r="E46" s="1">
-        <v>0.14742269999999999</v>
+        <v>15.336690000000001</v>
       </c>
       <c r="F46" s="1">
-        <v>0.14621400000000001</v>
+        <v>20.289449999999999</v>
       </c>
       <c r="G46" s="1">
-        <v>0.1386076</v>
+        <v>8.0236520000000002</v>
       </c>
       <c r="H46" s="1">
-        <v>0.1304785</v>
+        <v>-111.3526</v>
       </c>
       <c r="I46" s="1">
-        <v>0.12398389999999999</v>
+        <v>92.254440000000002</v>
       </c>
       <c r="J46" s="1">
-        <v>0.1186548</v>
+        <v>3.5877699999999999</v>
       </c>
       <c r="K46" s="1">
-        <v>0.1127108</v>
+        <v>41.408090000000001</v>
       </c>
       <c r="L46" s="1">
-        <v>0.1048649</v>
+        <v>72.771879999999996</v>
       </c>
       <c r="M46" s="1">
-        <v>9.5364389999999993E-2</v>
+        <v>38.143369999999997</v>
       </c>
       <c r="N46" s="1">
-        <v>8.4881239999999997E-2</v>
+        <v>167.11269999999999</v>
       </c>
       <c r="O46" s="1">
-        <v>7.3958549999999998E-2</v>
+        <v>276.69389999999999</v>
       </c>
       <c r="P46" s="1">
-        <v>6.3465999999999995E-2</v>
+        <v>378.83370000000002</v>
       </c>
       <c r="Q46" s="1">
-        <v>5.4193850000000002E-2</v>
+        <v>-50.619860000000003</v>
       </c>
       <c r="R46" s="1">
-        <v>4.643982E-2</v>
+        <v>281.35419999999999</v>
       </c>
       <c r="S46" s="1">
-        <v>4.0115919999999999E-2</v>
+        <v>247.44399999999999</v>
       </c>
       <c r="T46" s="2"/>
     </row>
@@ -2626,58 +2626,58 @@
         <v>-750</v>
       </c>
       <c r="B47" s="3">
-        <v>-5.8590040000000003E-2</v>
+        <v>34.571249999999999</v>
       </c>
       <c r="C47" s="1">
-        <v>6.8806580000000006E-2</v>
+        <v>-57.750950000000003</v>
       </c>
       <c r="D47" s="1">
-        <v>0.1242837</v>
+        <v>-31.818680000000001</v>
       </c>
       <c r="E47" s="1">
-        <v>0.1431519</v>
+        <v>-77.722390000000004</v>
       </c>
       <c r="F47" s="1">
-        <v>0.14178879999999999</v>
+        <v>-84.581159999999997</v>
       </c>
       <c r="G47" s="1">
-        <v>0.13346379999999999</v>
+        <v>114.94670000000001</v>
       </c>
       <c r="H47" s="1">
-        <v>0.1258861</v>
+        <v>12.27857</v>
       </c>
       <c r="I47" s="1">
-        <v>0.1213732</v>
+        <v>15.17207</v>
       </c>
       <c r="J47" s="1">
-        <v>0.1187126</v>
+        <v>-1.577572</v>
       </c>
       <c r="K47" s="1">
-        <v>0.1147484</v>
+        <v>-115.4533</v>
       </c>
       <c r="L47" s="1">
-        <v>0.10733520000000001</v>
+        <v>11.58738</v>
       </c>
       <c r="M47" s="1">
-        <v>9.7414799999999996E-2</v>
+        <v>52.453760000000003</v>
       </c>
       <c r="N47" s="1">
-        <v>8.6145899999999997E-2</v>
+        <v>-10.475390000000001</v>
       </c>
       <c r="O47" s="1">
-        <v>7.3972070000000001E-2</v>
+        <v>216.6618</v>
       </c>
       <c r="P47" s="1">
-        <v>6.2230819999999999E-2</v>
+        <v>-384.73489999999998</v>
       </c>
       <c r="Q47" s="1">
-        <v>5.2135609999999999E-2</v>
+        <v>-366.97739999999999</v>
       </c>
       <c r="R47" s="1">
-        <v>4.3992650000000001E-2</v>
+        <v>-424.964</v>
       </c>
       <c r="S47" s="1">
-        <v>3.7569909999999998E-2</v>
+        <v>219.98169999999999</v>
       </c>
       <c r="T47" s="2"/>
     </row>
@@ -2686,58 +2686,58 @@
         <v>-1000</v>
       </c>
       <c r="B48" s="3">
-        <v>-5.9171920000000003E-2</v>
+        <v>-37.44032</v>
       </c>
       <c r="C48" s="1">
-        <v>6.5233959999999994E-2</v>
+        <v>26.446650000000002</v>
       </c>
       <c r="D48" s="1">
-        <v>0.12601709999999999</v>
+        <v>-21.100100000000001</v>
       </c>
       <c r="E48" s="1">
-        <v>0.1453991</v>
+        <v>-9.4436520000000002</v>
       </c>
       <c r="F48" s="1">
-        <v>0.14019319999999999</v>
+        <v>24.970669999999998</v>
       </c>
       <c r="G48" s="1">
-        <v>0.12896469999999999</v>
+        <v>29.21406</v>
       </c>
       <c r="H48" s="1">
-        <v>0.1213578</v>
+        <v>34.471159999999998</v>
       </c>
       <c r="I48" s="1">
-        <v>0.11935759999999999</v>
+        <v>-28.684419999999999</v>
       </c>
       <c r="J48" s="1">
-        <v>0.1205362</v>
+        <v>-2.9417990000000001</v>
       </c>
       <c r="K48" s="1">
-        <v>0.1194057</v>
+        <v>79.322190000000006</v>
       </c>
       <c r="L48" s="1">
-        <v>0.1120017</v>
+        <v>-37.95288</v>
       </c>
       <c r="M48" s="1">
-        <v>0.1011541</v>
+        <v>187.08</v>
       </c>
       <c r="N48" s="1">
-        <v>8.8855859999999995E-2</v>
+        <v>-184.0598</v>
       </c>
       <c r="O48" s="1">
-        <v>7.4731469999999994E-2</v>
+        <v>-181.20699999999999</v>
       </c>
       <c r="P48" s="1">
-        <v>6.1127519999999998E-2</v>
+        <v>-26.01398</v>
       </c>
       <c r="Q48" s="1">
-        <v>4.9929099999999997E-2</v>
+        <v>102.7924</v>
       </c>
       <c r="R48" s="1">
-        <v>4.1330890000000002E-2</v>
+        <v>-220.11369999999999</v>
       </c>
       <c r="S48" s="1">
-        <v>3.4825879999999997E-2</v>
+        <v>322.1361</v>
       </c>
       <c r="T48" s="2"/>
     </row>
@@ -2746,58 +2746,58 @@
         <v>-1250</v>
       </c>
       <c r="B49" s="3">
-        <v>-1.1893559999999999E-2</v>
+        <v>10.4405</v>
       </c>
       <c r="C49" s="1">
-        <v>7.6134419999999994E-2</v>
+        <v>48.228839999999998</v>
       </c>
       <c r="D49" s="1">
-        <v>0.1412426</v>
+        <v>73.707719999999995</v>
       </c>
       <c r="E49" s="1">
-        <v>0.15668219999999999</v>
+        <v>23.710560000000001</v>
       </c>
       <c r="F49" s="1">
-        <v>0.14178930000000001</v>
+        <v>-6.7461570000000002</v>
       </c>
       <c r="G49" s="1">
-        <v>0.1246362</v>
+        <v>-38.936320000000002</v>
       </c>
       <c r="H49" s="1">
-        <v>0.1164307</v>
+        <v>97.17568</v>
       </c>
       <c r="I49" s="1">
-        <v>0.1179211</v>
+        <v>-17.10821</v>
       </c>
       <c r="J49" s="1">
-        <v>0.12501870000000001</v>
+        <v>25.78153</v>
       </c>
       <c r="K49" s="1">
-        <v>0.12836829999999999</v>
+        <v>-43.524419999999999</v>
       </c>
       <c r="L49" s="1">
-        <v>0.1197614</v>
+        <v>7.5945559999999999</v>
       </c>
       <c r="M49" s="1">
-        <v>0.10713789999999999</v>
+        <v>-25.671700000000001</v>
       </c>
       <c r="N49" s="1">
-        <v>9.3848689999999999E-2</v>
+        <v>46.451009999999997</v>
       </c>
       <c r="O49" s="1">
-        <v>7.6511449999999995E-2</v>
+        <v>15.29494</v>
       </c>
       <c r="P49" s="1">
-        <v>6.0096280000000002E-2</v>
+        <v>-268.63740000000001</v>
       </c>
       <c r="Q49" s="1">
-        <v>4.7475709999999997E-2</v>
+        <v>137.10050000000001</v>
       </c>
       <c r="R49" s="1">
-        <v>3.8386419999999997E-2</v>
+        <v>-357.21850000000001</v>
       </c>
       <c r="S49" s="1">
-        <v>3.1848509999999997E-2</v>
+        <v>-260.06119999999999</v>
       </c>
       <c r="T49" s="2"/>
     </row>
@@ -2806,58 +2806,58 @@
         <v>-1500</v>
       </c>
       <c r="B50" s="3">
-        <v>5.1900050000000003E-2</v>
+        <v>2.0374379999999999</v>
       </c>
       <c r="C50" s="1">
-        <v>9.4817600000000002E-2</v>
+        <v>-68.244169999999997</v>
       </c>
       <c r="D50" s="1">
-        <v>0.17684050000000001</v>
+        <v>-9.2339020000000005</v>
       </c>
       <c r="E50" s="1">
-        <v>0.1807792</v>
+        <v>11.480499999999999</v>
       </c>
       <c r="F50" s="1">
-        <v>0.14634330000000001</v>
+        <v>33.838610000000003</v>
       </c>
       <c r="G50" s="1">
-        <v>0.1193941</v>
+        <v>-64.631910000000005</v>
       </c>
       <c r="H50" s="1">
-        <v>0.11034099999999999</v>
+        <v>-23.382539999999999</v>
       </c>
       <c r="I50" s="1">
-        <v>0.1168443</v>
+        <v>-0.68692889999999995</v>
       </c>
       <c r="J50" s="1">
-        <v>0.13348470000000001</v>
+        <v>-17.001709999999999</v>
       </c>
       <c r="K50" s="1">
-        <v>0.14503060000000001</v>
+        <v>18.158429999999999</v>
       </c>
       <c r="L50" s="1">
-        <v>0.13173969999999999</v>
+        <v>108.2777</v>
       </c>
       <c r="M50" s="1">
-        <v>0.1159403</v>
+        <v>-54.070729999999998</v>
       </c>
       <c r="N50" s="1">
-        <v>0.1028854</v>
+        <v>-6.1269989999999996</v>
       </c>
       <c r="O50" s="1">
-        <v>7.9613219999999998E-2</v>
+        <v>-166.58590000000001</v>
       </c>
       <c r="P50" s="1">
-        <v>5.8963759999999997E-2</v>
+        <v>-72.265039999999999</v>
       </c>
       <c r="Q50" s="1">
-        <v>4.4618079999999997E-2</v>
+        <v>-142.48840000000001</v>
       </c>
       <c r="R50" s="1">
-        <v>3.5077480000000001E-2</v>
+        <v>618.74090000000001</v>
       </c>
       <c r="S50" s="1">
-        <v>2.860035E-2</v>
+        <v>-308.2475</v>
       </c>
       <c r="T50" s="2"/>
     </row>
@@ -2866,58 +2866,58 @@
         <v>-1750</v>
       </c>
       <c r="B51" s="3">
-        <v>5.473157E-2</v>
+        <v>1.6763170000000001</v>
       </c>
       <c r="C51" s="1">
-        <v>0.11028110000000001</v>
+        <v>-12.87027</v>
       </c>
       <c r="D51" s="1">
-        <v>0.24964020000000001</v>
+        <v>21.36082</v>
       </c>
       <c r="E51" s="1">
-        <v>0.223389</v>
+        <v>36.429009999999998</v>
       </c>
       <c r="F51" s="1">
-        <v>0.1522694</v>
+        <v>-35.94699</v>
       </c>
       <c r="G51" s="1">
-        <v>0.1112206</v>
+        <v>24.41255</v>
       </c>
       <c r="H51" s="1">
-        <v>0.1018312</v>
+        <v>-31.626840000000001</v>
       </c>
       <c r="I51" s="1">
-        <v>0.1155827</v>
+        <v>31.211780000000001</v>
       </c>
       <c r="J51" s="1">
-        <v>0.14773130000000001</v>
+        <v>12.688890000000001</v>
       </c>
       <c r="K51" s="1">
-        <v>0.17663699999999999</v>
+        <v>-6.1039120000000002</v>
       </c>
       <c r="L51" s="1">
-        <v>0.1490302</v>
+        <v>-35.794449999999998</v>
       </c>
       <c r="M51" s="1">
-        <v>0.1277123</v>
+        <v>13.3621</v>
       </c>
       <c r="N51" s="1">
-        <v>0.1200329</v>
+        <v>38.442500000000003</v>
       </c>
       <c r="O51" s="1">
-        <v>8.40693E-2</v>
+        <v>15.181469999999999</v>
       </c>
       <c r="P51" s="1">
-        <v>5.7351260000000001E-2</v>
+        <v>-72.061729999999997</v>
       </c>
       <c r="Q51" s="1">
-        <v>4.1131260000000003E-2</v>
+        <v>185.78550000000001</v>
       </c>
       <c r="R51" s="1">
-        <v>3.1303329999999997E-2</v>
+        <v>-218.6309</v>
       </c>
       <c r="S51" s="1">
-        <v>2.5045660000000001E-2</v>
+        <v>134.27699999999999</v>
       </c>
       <c r="T51" s="2"/>
     </row>
@@ -2926,58 +2926,58 @@
         <v>-2000</v>
       </c>
       <c r="B52" s="3">
-        <v>-2.8301639999999999E-2</v>
+        <v>1.0867089999999999</v>
       </c>
       <c r="C52" s="1">
-        <v>0.1077553</v>
+        <v>12.63377</v>
       </c>
       <c r="D52" s="1">
-        <v>0.39715450000000002</v>
+        <v>-14.60078</v>
       </c>
       <c r="E52" s="1">
-        <v>0.29047529999999999</v>
+        <v>-24.85961</v>
       </c>
       <c r="F52" s="1">
-        <v>0.15482589999999999</v>
+        <v>8.3903420000000004</v>
       </c>
       <c r="G52" s="1">
-        <v>9.6641539999999998E-2</v>
+        <v>4.3066050000000002E-2</v>
       </c>
       <c r="H52" s="1">
-        <v>8.902612E-2</v>
+        <v>9.8916400000000007</v>
       </c>
       <c r="I52" s="1">
-        <v>0.11256099999999999</v>
+        <v>-16.600449999999999</v>
       </c>
       <c r="J52" s="1">
-        <v>0.16908010000000001</v>
+        <v>-7.1291370000000001</v>
       </c>
       <c r="K52" s="1">
-        <v>0.23750250000000001</v>
+        <v>-2.903235</v>
       </c>
       <c r="L52" s="1">
-        <v>0.17118259999999999</v>
+        <v>-3.3515280000000001</v>
       </c>
       <c r="M52" s="1">
-        <v>0.14090820000000001</v>
+        <v>17.312889999999999</v>
       </c>
       <c r="N52" s="1">
-        <v>0.154395</v>
+        <v>-35.133200000000002</v>
       </c>
       <c r="O52" s="1">
-        <v>8.8755290000000001E-2</v>
+        <v>-161.62029999999999</v>
       </c>
       <c r="P52" s="1">
-        <v>5.4602339999999999E-2</v>
+        <v>248.5205</v>
       </c>
       <c r="Q52" s="1">
-        <v>3.6729730000000002E-2</v>
+        <v>-238.98759999999999</v>
       </c>
       <c r="R52" s="1">
-        <v>2.6965610000000001E-2</v>
+        <v>-251.1062</v>
       </c>
       <c r="S52" s="1">
-        <v>2.115651E-2</v>
+        <v>205.12260000000001</v>
       </c>
       <c r="T52" s="2"/>
     </row>
@@ -2986,58 +2986,58 @@
         <v>-2250</v>
       </c>
       <c r="B53" s="3">
-        <v>1.150256E-2</v>
+        <v>1.466072E-2</v>
       </c>
       <c r="C53" s="1">
-        <v>6.4028260000000004E-2</v>
+        <v>-1.3610070000000001</v>
       </c>
       <c r="D53" s="1">
-        <v>0.62117659999999997</v>
+        <v>1.3447929999999999</v>
       </c>
       <c r="E53" s="1">
-        <v>0.3556222</v>
+        <v>2.168034</v>
       </c>
       <c r="F53" s="1">
-        <v>0.13941429999999999</v>
+        <v>-0.80630400000000002</v>
       </c>
       <c r="G53" s="1">
-        <v>6.8759879999999995E-2</v>
+        <v>-3.5040950000000001E-2</v>
       </c>
       <c r="H53" s="1">
-        <v>6.7297640000000006E-2</v>
+        <v>-0.85406000000000004</v>
       </c>
       <c r="I53" s="1">
-        <v>9.9983279999999994E-2</v>
+        <v>1.5064439999999999</v>
       </c>
       <c r="J53" s="1">
-        <v>0.18413589999999999</v>
+        <v>0.4595284</v>
       </c>
       <c r="K53" s="1">
-        <v>0.3206775</v>
+        <v>0.1787849</v>
       </c>
       <c r="L53" s="1">
-        <v>0.18427830000000001</v>
+        <v>0.71742329999999999</v>
       </c>
       <c r="M53" s="1">
-        <v>0.144451</v>
+        <v>1.135648</v>
       </c>
       <c r="N53" s="1">
-        <v>0.21079700000000001</v>
+        <v>56.430779999999999</v>
       </c>
       <c r="O53" s="1">
-        <v>9.0695609999999996E-2</v>
+        <v>-80.007400000000004</v>
       </c>
       <c r="P53" s="1">
-        <v>4.9806700000000002E-2</v>
+        <v>211.93719999999999</v>
       </c>
       <c r="Q53" s="1">
-        <v>3.109729E-2</v>
+        <v>-24.809640000000002</v>
       </c>
       <c r="R53" s="1">
-        <v>2.1986169999999999E-2</v>
+        <v>-457.55650000000003</v>
       </c>
       <c r="S53" s="1">
-        <v>1.6924649999999999E-2</v>
+        <v>212.32329999999999</v>
       </c>
       <c r="T53" s="2"/>
     </row>
@@ -3046,58 +3046,58 @@
         <v>-2500</v>
       </c>
       <c r="B54" s="3">
-        <v>-8.0501900000000003E-4</v>
+        <v>2.961394E-3</v>
       </c>
       <c r="C54" s="1">
-        <v>-4.7115150000000001E-4</v>
+        <v>2.3430650000000001E-2</v>
       </c>
       <c r="D54" s="1">
-        <v>-4.9463779999999999E-2</v>
+        <v>-2.4138960000000001E-2</v>
       </c>
       <c r="E54" s="1">
-        <v>-2.799126E-2</v>
+        <v>-3.943021E-2</v>
       </c>
       <c r="F54" s="1">
-        <v>-8.9062770000000006E-3</v>
+        <v>1.16486E-2</v>
       </c>
       <c r="G54" s="1">
-        <v>-4.6734790000000003E-3</v>
+        <v>1.6298879999999999E-3</v>
       </c>
       <c r="H54" s="1">
-        <v>-4.7648780000000002E-3</v>
+        <v>1.3031310000000001E-2</v>
       </c>
       <c r="I54" s="1">
-        <v>-7.0579359999999999E-3</v>
+        <v>-2.8596159999999999E-2</v>
       </c>
       <c r="J54" s="1">
-        <v>-1.3134460000000001E-2</v>
+        <v>-1.0466629999999999E-2</v>
       </c>
       <c r="K54" s="1">
-        <v>-2.7421520000000001E-2</v>
+        <v>-6.663614E-3</v>
       </c>
       <c r="L54" s="1">
-        <v>-1.272469E-2</v>
+        <v>-1.1478149999999999E-2</v>
       </c>
       <c r="M54" s="1">
-        <v>-5.6016190000000004E-3</v>
+        <v>0.1416278</v>
       </c>
       <c r="N54" s="1">
-        <v>0.1116747</v>
+        <v>-3.5348709999999999</v>
       </c>
       <c r="O54" s="1">
-        <v>9.0672580000000003E-2</v>
+        <v>13.457990000000001</v>
       </c>
       <c r="P54" s="1">
-        <v>4.1847519999999999E-2</v>
+        <v>540.16549999999995</v>
       </c>
       <c r="Q54" s="1">
-        <v>2.3967720000000001E-2</v>
+        <v>-24.256589999999999</v>
       </c>
       <c r="R54" s="1">
-        <v>1.634027E-2</v>
+        <v>-170.23419999999999</v>
       </c>
       <c r="S54" s="1">
-        <v>1.236889E-2</v>
+        <v>417.76479999999998</v>
       </c>
       <c r="T54" s="2"/>
     </row>
@@ -3106,58 +3106,58 @@
         <v>-2750</v>
       </c>
       <c r="B55" s="3">
-        <v>3.0123420000000002E-5</v>
+        <v>-3.8334119999999997E-5</v>
       </c>
       <c r="C55" s="1">
-        <v>9.1506600000000002E-5</v>
+        <v>-1.099783E-4</v>
       </c>
       <c r="D55" s="1">
-        <v>7.0974419999999996E-4</v>
+        <v>6.9808510000000002E-5</v>
       </c>
       <c r="E55" s="1">
-        <v>4.9967190000000002E-4</v>
+        <v>1.410788E-4</v>
       </c>
       <c r="F55" s="1">
-        <v>1.6969399999999999E-4</v>
+        <v>-5.4475840000000001E-5</v>
       </c>
       <c r="G55" s="1">
-        <v>9.1600740000000001E-5</v>
+        <v>9.4290790000000001E-6</v>
       </c>
       <c r="H55" s="1">
-        <v>8.2321430000000003E-5</v>
+        <v>-4.1731779999999998E-5</v>
       </c>
       <c r="I55" s="1">
-        <v>1.2602349999999999E-4</v>
+        <v>1.328232E-4</v>
       </c>
       <c r="J55" s="1">
-        <v>2.3830720000000001E-4</v>
+        <v>5.0412160000000002E-5</v>
       </c>
       <c r="K55" s="1">
-        <v>4.2588290000000002E-4</v>
+        <v>2.9509530000000001E-5</v>
       </c>
       <c r="L55" s="1">
-        <v>2.2461700000000001E-4</v>
+        <v>5.2670400000000003E-5</v>
       </c>
       <c r="M55" s="1">
-        <v>3.5120749999999998E-4</v>
+        <v>8.8702490000000002E-4</v>
       </c>
       <c r="N55" s="1">
-        <v>1.337293E-2</v>
+        <v>9.0722919999999999E-2</v>
       </c>
       <c r="O55" s="1">
-        <v>9.4536579999999995E-2</v>
+        <v>-32.350059999999999</v>
       </c>
       <c r="P55" s="1">
-        <v>2.9170040000000001E-2</v>
+        <v>60.918489999999998</v>
       </c>
       <c r="Q55" s="1">
-        <v>1.5254520000000001E-2</v>
+        <v>-161.22409999999999</v>
       </c>
       <c r="R55" s="1">
-        <v>1.0092449999999999E-2</v>
+        <v>221.65860000000001</v>
       </c>
       <c r="S55" s="1">
-        <v>7.5426069999999998E-3</v>
+        <v>-20.89742</v>
       </c>
       <c r="T55" s="2"/>
     </row>
@@ -3166,64 +3166,64 @@
         <v>-3000</v>
       </c>
       <c r="B56" s="3">
-        <v>-1.234102E-7</v>
+        <v>8.9420110000000005E-8</v>
       </c>
       <c r="C56" s="1">
-        <v>2.2390649999999999E-8</v>
+        <v>5.5072220000000002E-8</v>
       </c>
       <c r="D56" s="1">
-        <v>-6.9609280000000003E-7</v>
+        <v>-2.65639E-8</v>
       </c>
       <c r="E56" s="1">
-        <v>-4.700839E-7</v>
+        <v>-8.2675599999999997E-8</v>
       </c>
       <c r="F56" s="1">
-        <v>-6.4992190000000005E-8</v>
+        <v>3.0259090000000002E-8</v>
       </c>
       <c r="G56" s="1">
-        <v>-7.2836839999999994E-8</v>
+        <v>-2.2188280000000001E-9</v>
       </c>
       <c r="H56" s="1">
-        <v>-5.2990699999999998E-8</v>
+        <v>1.1825049999999999E-8</v>
       </c>
       <c r="I56" s="1">
-        <v>-8.8928220000000005E-8</v>
+        <v>-7.9821849999999997E-8</v>
       </c>
       <c r="J56" s="1">
-        <v>-1.8078300000000001E-7</v>
+        <v>-4.9278429999999998E-8</v>
       </c>
       <c r="K56" s="1">
-        <v>-4.3033049999999998E-7</v>
+        <v>-5.80183E-9</v>
       </c>
       <c r="L56" s="1">
-        <v>-1.137215E-7</v>
+        <v>-2.8421889999999999E-8</v>
       </c>
       <c r="M56" s="1">
-        <v>7.232171E-7</v>
+        <v>1.350359E-7</v>
       </c>
       <c r="N56" s="1">
-        <v>2.1235149999999999E-3</v>
+        <v>2.234595E-2</v>
       </c>
       <c r="O56" s="1">
-        <v>5.1510689999999998E-2</v>
+        <v>-10.73742</v>
       </c>
       <c r="P56" s="1">
-        <v>1.071195E-2</v>
+        <v>-325.1515</v>
       </c>
       <c r="Q56" s="1">
-        <v>5.254051E-3</v>
+        <v>-11.43573</v>
       </c>
       <c r="R56" s="1">
-        <v>3.4161510000000001E-3</v>
+        <v>54.775489999999998</v>
       </c>
       <c r="S56" s="1">
-        <v>2.5354230000000002E-3</v>
+        <v>-49.146239999999999</v>
       </c>
       <c r="T56" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:K13">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3235,7 +3235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E5">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3243,9 +3243,19 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J5">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3253,9 +3263,19 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:J13">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3263,9 +3283,19 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:T13 K15">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3275,7 +3305,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:S28">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3283,9 +3313,19 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:S42">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3295,7 +3335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:S56">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3303,6 +3343,40 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:S42">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:T13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
